--- a/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>24.88613218649527</v>
+        <v>26.0301624306018</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.52961973944102</v>
+        <v>12.72897137640648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.64573580292402</v>
+        <v>-21.03373342095662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.30466884019698</v>
+        <v>13.58438135437408</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.422115121851744</v>
+        <v>4.159661943213016</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-30.91702086248823</v>
+        <v>-31.09948251582743</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>22.59021203962652</v>
+        <v>22.5634389173116</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>11.66723784384464</v>
+        <v>11.25458893558238</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-23.26638486058471</v>
+        <v>-23.85039888338014</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43.22828776160374</v>
+        <v>43.92241571883172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30.56303906667792</v>
+        <v>31.57400958879542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.116981541261851</v>
+        <v>-6.634444059373937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.04644681345953</v>
+        <v>32.34051025139919</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>23.3203087180319</v>
+        <v>23.16333177469857</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-15.38750291193497</v>
+        <v>-15.33297634215265</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>35.48173661334118</v>
+        <v>35.38145861779689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>24.42521862467958</v>
+        <v>25.08197462030552</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-12.81574634805881</v>
+        <v>-13.18303792888514</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.8956985583735543</v>
+        <v>0.8774838614788867</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4734623546105367</v>
+        <v>0.4280475863743668</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7211146436220613</v>
+        <v>-0.7297608288306877</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3127777908658828</v>
+        <v>0.3100128221992628</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1177127665021243</v>
+        <v>0.1051789589184933</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7353419366519252</v>
+        <v>-0.7358823942993358</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6787631887201976</v>
+        <v>0.6706286143680986</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3536839449705916</v>
+        <v>0.3341420289435669</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6973631278939153</v>
+        <v>-0.7001080104697208</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.33806647843181</v>
+        <v>2.333866328555679</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.536948376454653</v>
+        <v>1.606652132727827</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3113061121533973</v>
+        <v>-0.3345358453086115</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.03676659191832</v>
+        <v>1.083664393593226</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7687847756789168</v>
+        <v>0.7440906488317621</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.5104658725993376</v>
+        <v>-0.4950390358151836</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.373271996604423</v>
+        <v>1.38362781326855</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9202090781673227</v>
+        <v>0.9658270096594044</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4891162109273066</v>
+        <v>-0.4994356446824972</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5724607253914354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.795399109885075</v>
+        <v>2.79539910988508</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>29.07962838765162</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>22.02446965899095</v>
+        <v>22.22004006668408</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.15787144407761</v>
+        <v>-5.74133080283635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.274938737442425</v>
+        <v>-3.501047166341739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22.27191810302842</v>
+        <v>22.60865241791419</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.332978081230705</v>
+        <v>-6.752116861084462</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.115507139685629</v>
+        <v>-0.9287400301052514</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>24.49397441441636</v>
+        <v>24.65001756871855</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.903879516578258</v>
+        <v>-3.958430496938576</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5341728984370633</v>
+        <v>-0.7118457916280302</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>35.51484120955315</v>
+        <v>35.55557993764656</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.403021354799707</v>
+        <v>5.87869061012728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.942214253814917</v>
+        <v>9.731957585400313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35.0608504461358</v>
+        <v>35.33986772856777</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.940890289086158</v>
+        <v>5.635077256012203</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.181470371199428</v>
+        <v>9.668065942790308</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>33.53376258885843</v>
+        <v>33.89632767877726</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.785226368350795</v>
+        <v>4.190407521052296</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.492967291972741</v>
+        <v>7.833176368000114</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.03005779241379455</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.146776053678055</v>
+        <v>0.1467760536780553</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.207004272594535</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.9795730719130104</v>
+        <v>0.9849103144267879</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2349793637081614</v>
+        <v>-0.2581275065305088</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1573893894274088</v>
+        <v>-0.1607638189218555</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.7736106165372285</v>
+        <v>0.8232096280618211</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2354904385007567</v>
+        <v>-0.2460565246140518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07483426792974235</v>
+        <v>-0.03561040542114021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.022404579652513</v>
+        <v>1.024540718628374</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1611000242540913</v>
+        <v>-0.166497493652837</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.02441454709339576</v>
+        <v>-0.02666138365346728</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.217176481193777</v>
+        <v>2.250713611017034</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3853928757686833</v>
+        <v>0.3748518675135053</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5994749117973476</v>
+        <v>0.5902907017546463</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.648768661371839</v>
+        <v>1.660320149260211</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2278579648102216</v>
+        <v>0.249159270175161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4344606670861865</v>
+        <v>0.4437097602032302</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.70659214527495</v>
+        <v>1.747560467690999</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1931904757761196</v>
+        <v>0.2132245016279447</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.376443080679647</v>
+        <v>0.3903419493137977</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>6.228990652106395</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7579623837630056</v>
+        <v>0.7579623837630084</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>23.25530173821142</v>
@@ -1083,7 +1083,7 @@
         <v>-1.319529875558823</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-9.371630881011217</v>
+        <v>-9.371630881011223</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>26.11500497527996</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>21.07685700037061</v>
+        <v>21.68049536806783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9587522335522416</v>
+        <v>-1.064905230994231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.80715579349151</v>
+        <v>-6.09319253616236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.2202469391207</v>
+        <v>15.0181921055773</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.828206165977299</v>
+        <v>-9.198525916735894</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.03041241092675</v>
+        <v>-15.56929869575981</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>19.99083102140648</v>
+        <v>20.49886675682041</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.531633278823355</v>
+        <v>-3.812506515294013</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.865561369072392</v>
+        <v>-9.312612778527177</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>37.39142374142744</v>
+        <v>37.67210538106441</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.41498746758638</v>
+        <v>14.22529447175205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.261322960868753</v>
+        <v>7.202461399808335</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31.18807405503332</v>
+        <v>30.24948374960296</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.886193864027526</v>
+        <v>6.673462275725258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.704307442166115</v>
+        <v>-2.192962234607555</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>31.36040692892013</v>
+        <v>31.64571652040726</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.572919327962826</v>
+        <v>7.574962804706509</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.02108184754393849</v>
+        <v>0.2937422959259558</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3311415975105156</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.04029430908317135</v>
+        <v>0.0402943090831715</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7363481988012687</v>
@@ -1188,7 +1188,7 @@
         <v>-0.04178115846743385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2967402270994442</v>
+        <v>-0.2967402270994444</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.014297907854177</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.9246823538174386</v>
+        <v>0.9273994006853028</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0503643261363095</v>
+        <v>-0.06334861769026015</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3029263979203529</v>
+        <v>-0.276888014511975</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4282793639155928</v>
+        <v>0.4115397416851645</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2455072175451723</v>
+        <v>-0.2542448402496224</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4544198785898437</v>
+        <v>-0.4591568682149709</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7032290564212769</v>
+        <v>0.7008499976246164</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1282424354022705</v>
+        <v>-0.1330169280927346</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3442101925445185</v>
+        <v>-0.3287210707841914</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.577281300378003</v>
+        <v>2.521652152585435</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9777044630666357</v>
+        <v>0.9462885600158547</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4861658105818259</v>
+        <v>0.4912317211043737</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.14086614561482</v>
+        <v>1.086553468905517</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2406476376296719</v>
+        <v>0.2508281641515906</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.09695143324267731</v>
+        <v>-0.08468036207628898</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.374111324046282</v>
+        <v>1.410962506192376</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3182077880384284</v>
+        <v>0.3256665441555928</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.005751038834383508</v>
+        <v>0.01735164166475369</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>36.10577235343649</v>
+        <v>35.78593615075781</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>19.1580763913536</v>
+        <v>18.76997268133188</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.959057221351346</v>
+        <v>6.488539920704711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32.14571592130891</v>
+        <v>32.35474490779171</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>16.83131867807673</v>
+        <v>16.55753288129894</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.765240575042777</v>
+        <v>-3.23775747844248</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>35.80824553187835</v>
+        <v>36.12156827875699</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>19.7920930948758</v>
+        <v>18.98478121846015</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.305255994550334</v>
+        <v>3.002718215155365</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>50.23155632035713</v>
+        <v>50.24703631146448</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>33.61942953877413</v>
+        <v>33.54082002618867</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.9948418829838</v>
+        <v>22.44355017645494</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46.06386617010347</v>
+        <v>46.55527101261911</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>31.33178735297136</v>
+        <v>30.28611013131562</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.569520626366989</v>
+        <v>9.11894616437713</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>46.05806478205875</v>
+        <v>45.89778862501012</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>30.43767043797397</v>
+        <v>29.99769154734352</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.31941551021466</v>
+        <v>13.2742777365393</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1.976306706183135</v>
+        <v>1.963095946441888</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.077398560268477</v>
+        <v>1.004646228180883</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3292991439776956</v>
+        <v>0.3685587984135965</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.150222085965559</v>
+        <v>1.18878944151416</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6333509501649184</v>
+        <v>0.6051552181729911</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1375900682011822</v>
+        <v>-0.1230481570743076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.637233489257007</v>
+        <v>1.61134045123278</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.9109699253861514</v>
+        <v>0.8765131100761869</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1470523858560727</v>
+        <v>0.1270228754989173</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.65050436453699</v>
+        <v>4.415427245846393</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.106380520051017</v>
+        <v>2.920342415844986</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.875699493981912</v>
+        <v>1.969916174152013</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.418208492227517</v>
+        <v>2.370834559205723</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.652857064893333</v>
+        <v>1.511057790983549</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4944969283868214</v>
+        <v>0.4588260084947271</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.774829104778891</v>
+        <v>2.748469464535096</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.835308636309649</v>
+        <v>1.778358368924156</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7849582286376469</v>
+        <v>0.7854363633534581</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>32.3175534120766</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.06641553193997</v>
+        <v>-3.066415531939973</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>30.78923616862543</v>
@@ -1511,7 +1511,7 @@
         <v>40.18572543086469</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.892737841665648</v>
+        <v>-1.892737841665659</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>28.66265305443157</v>
@@ -1520,7 +1520,7 @@
         <v>36.49904385690593</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.476106530005798</v>
+        <v>-2.476106530005795</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>16.13150960422561</v>
+        <v>15.53538855086286</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>21.44453491932786</v>
+        <v>21.68197259864623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.5390116322098</v>
+        <v>-12.47047917224858</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21.38920538372665</v>
+        <v>21.00057888505927</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>30.54151730417373</v>
+        <v>30.4643334206369</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.38195762978704</v>
+        <v>-9.902268880823662</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>21.59333073088543</v>
+        <v>21.06259175606534</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>30.00128733175469</v>
+        <v>29.445994326944</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.518575105213147</v>
+        <v>-8.214292730674542</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>36.79356132641354</v>
+        <v>36.23556068986292</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>42.49054676876587</v>
+        <v>41.82111235030292</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.117643978113142</v>
+        <v>7.019764321839199</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40.9669533088986</v>
+        <v>39.28270162495777</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>48.76351939018499</v>
+        <v>48.85089660991927</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.052120205493864</v>
+        <v>5.976964613739208</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>35.89246521186537</v>
+        <v>35.44965872497257</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>43.54837527256234</v>
+        <v>43.05521558948161</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.875335980406373</v>
+        <v>3.939452780998161</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>1.185529048107144</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1124876205920738</v>
+        <v>-0.1124876205920739</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.267154722900691</v>
@@ -1616,7 +1616,7 @@
         <v>1.653874473989069</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.07789708332301774</v>
+        <v>-0.0778970833230182</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.11857005789804</v>
@@ -1625,7 +1625,7 @@
         <v>1.42438794910962</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.09663092315182856</v>
+        <v>-0.09663092315182845</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4715715909573407</v>
+        <v>0.4559773165557247</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6573080614235943</v>
+        <v>0.6565032983348694</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4116754055330267</v>
+        <v>-0.4108433006677961</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.7237641775300487</v>
+        <v>0.7009009981999261</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>1.014093125613633</v>
+        <v>1.001503321980389</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.332663142603304</v>
+        <v>-0.3327173157791805</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7510681116434487</v>
+        <v>0.7237742011013236</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.9903981626531867</v>
+        <v>1.011918571935654</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2906462858518195</v>
+        <v>-0.2751577780149963</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.661389035248428</v>
+        <v>1.61124186279971</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.014674630587985</v>
+        <v>1.907703083270955</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3311158240742468</v>
+        <v>0.2945744866890844</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.149328826364165</v>
+        <v>2.054371378041391</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.548464866996055</v>
+        <v>2.516971891511556</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2959162427100419</v>
+        <v>0.2976715011736147</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.709026678199331</v>
+        <v>1.594531667393172</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.995820017375712</v>
+        <v>2.003160637859089</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1821042134488337</v>
+        <v>0.2107825749652378</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>27.15656156568278</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14.3556426567011</v>
+        <v>14.35564265670109</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>26.43358756185223</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>27.91507439333839</v>
+        <v>29.75720059958923</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>18.25267606581328</v>
+        <v>18.66923058327711</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6.983292544633015</v>
+        <v>6.67943443708449</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17.64242582835408</v>
+        <v>17.87899963647829</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>14.96251544574525</v>
+        <v>13.77569678375877</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.621233280407319</v>
+        <v>5.365532444901806</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>25.60367397954418</v>
+        <v>25.96389994571007</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>19.50359843519695</v>
+        <v>19.20550558172675</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>8.104059172395708</v>
+        <v>8.243956254496061</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>45.11773545960172</v>
+        <v>46.00678238436095</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>36.17603955205067</v>
+        <v>34.85321445652463</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21.40199205356302</v>
+        <v>22.17818727933293</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34.02096479929915</v>
+        <v>35.23101194679944</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>32.96624031001875</v>
+        <v>31.61014347000218</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>20.10811910790337</v>
+        <v>19.44619939784141</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>37.52202252076333</v>
+        <v>36.89346283837518</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>31.3336135393144</v>
+        <v>31.30281169622481</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.74786473055293</v>
+        <v>18.65356169585771</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>1.796952192362588</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.9499142033257755</v>
+        <v>0.9499142033257748</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>1.251783508660733</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1.448870283188937</v>
+        <v>1.548130710130842</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1.015538901785689</v>
+        <v>0.9712984849071185</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3934454874674064</v>
+        <v>0.3339694397637814</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.6788701322821024</v>
+        <v>0.6932329740696503</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.5964091383455581</v>
+        <v>0.540122878843294</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2066191817185675</v>
+        <v>0.2077077839305023</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1.194117821189301</v>
+        <v>1.208382551987004</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.9457097271732888</v>
+        <v>0.9109162750683162</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.385368173427673</v>
+        <v>0.3804237079247437</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.984836812822519</v>
+        <v>4.088356112489283</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.351641140892347</v>
+        <v>3.087703986677401</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.901616448066442</v>
+        <v>1.943146341295239</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.982801299889288</v>
+        <v>2.040378416193749</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.908480797535006</v>
+        <v>1.842155538114896</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.17013242453554</v>
+        <v>1.149084857424158</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.462696942527926</v>
+        <v>2.360499640705196</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.042569714967103</v>
+        <v>2.022709697230259</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.216788361761556</v>
+        <v>1.186210609598717</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>16.0923388873858</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-7.852959662206541</v>
+        <v>-7.852959662206543</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>21.59938404766811</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>21.69522516366024</v>
+        <v>21.56515755080464</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>10.15643238327601</v>
+        <v>10.11673986811772</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-12.70070684144347</v>
+        <v>-13.24248928070669</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15.94873542853639</v>
+        <v>15.47885083575989</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>12.81254927343128</v>
+        <v>12.19880692497848</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-16.63717115526428</v>
+        <v>-16.67901920435957</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>20.38560487058898</v>
+        <v>20.40127170214075</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>13.43351947509944</v>
+        <v>13.24862651718797</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-13.45116908674994</v>
+        <v>-13.59216285243988</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>33.6089558467889</v>
+        <v>33.83385681123474</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.70465875951653</v>
+        <v>22.10727153118058</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-2.699755159767649</v>
+        <v>-2.459485160919813</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>27.2165502530043</v>
+        <v>26.85353706719425</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>23.77105778350221</v>
+        <v>24.4554366922248</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-7.380764330565376</v>
+        <v>-7.20275933492867</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>28.04897040938191</v>
+        <v>28.14651081491002</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>22.01180781995954</v>
+        <v>21.44788572793102</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-6.53911588704373</v>
+        <v>-6.991213114783927</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.8009066189927394</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3908373677784219</v>
+        <v>-0.390837367778422</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.8254692723368841</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.9474860827398256</v>
+        <v>0.9019949661747578</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.429576773828143</v>
+        <v>0.4139905424795515</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5677144258066351</v>
+        <v>-0.5629786522650179</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5319756339722718</v>
+        <v>0.5293923483725304</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4325975437081887</v>
+        <v>0.4133180467961637</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5740497455492444</v>
+        <v>-0.5611509773617438</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8015533734778922</v>
+        <v>0.8007366160336199</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.5333553834082826</v>
+        <v>0.5193661149147757</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.530761206172405</v>
+        <v>-0.5316021515572308</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.999909924511477</v>
+        <v>1.913251637431408</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.284461535610717</v>
+        <v>1.220454094725278</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1437163926790724</v>
+        <v>-0.1251153880263731</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.16413568988752</v>
+        <v>1.167568270073734</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.013305329668561</v>
+        <v>1.054861669641455</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3160845231423631</v>
+        <v>-0.3069607154291296</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.344160424816421</v>
+        <v>1.312209319468513</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.032855941015905</v>
+        <v>0.9953303812197001</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.3030528828433066</v>
+        <v>-0.3196646018884898</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>30.35778376288537</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11.55314093339362</v>
+        <v>11.55314093339361</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>29.91500004933642</v>
@@ -2153,7 +2153,7 @@
         <v>39.18604523674541</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>22.56044067097668</v>
+        <v>22.56044067097667</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>26.43110738183306</v>
@@ -2162,7 +2162,7 @@
         <v>35.13237105554794</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>17.58069875103021</v>
+        <v>17.58069875103022</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>16.75434640145862</v>
+        <v>16.41448482897252</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>24.79754293020004</v>
+        <v>24.66253943145094</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5.588563129550684</v>
+        <v>5.381711877007707</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>25.09032981126046</v>
+        <v>25.08842714240326</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>33.9464701111522</v>
+        <v>33.93471353611558</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>17.57317618171241</v>
+        <v>17.84012930668163</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>22.71905856628993</v>
+        <v>22.51956115058314</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>31.381879540633</v>
+        <v>31.00153484593737</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>13.97520243929761</v>
+        <v>13.95524354042786</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>28.06096214017049</v>
+        <v>28.33831644122787</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>35.71232093243657</v>
+        <v>36.30426943503917</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>17.68992541284861</v>
+        <v>17.45985329546716</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>35.18683645163843</v>
+        <v>35.70941834709572</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>44.00603987091694</v>
+        <v>44.32776200655714</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>28.23816597925936</v>
+        <v>27.30554080601631</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>29.88723247891435</v>
+        <v>30.07930815018974</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>39.17056911170088</v>
+        <v>38.31185453404579</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>21.46183360449341</v>
+        <v>21.29394899954803</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>1.013128344257547</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.3855622214139744</v>
+        <v>0.3855622214139742</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>1.149201820927101</v>
@@ -2258,7 +2258,7 @@
         <v>1.505354319462838</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.8666722198644738</v>
+        <v>0.8666722198644734</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.9485670642068443</v>
@@ -2267,7 +2267,7 @@
         <v>1.260840478204565</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.6309410937671088</v>
+        <v>0.6309410937671092</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.495410865075287</v>
+        <v>0.5099392506213817</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.7467576915983841</v>
+        <v>0.7484619735890876</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1604357343281969</v>
+        <v>0.1677722966108515</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.8632347972770413</v>
+        <v>0.8624010331100894</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>1.161588433666398</v>
+        <v>1.182758443167286</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6122682815449845</v>
+        <v>0.6217303385656058</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.76127904198348</v>
+        <v>0.7511609363030837</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>1.048141058196478</v>
+        <v>1.024685668788986</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4632750201751882</v>
+        <v>0.4679060953280495</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.031320040880342</v>
+        <v>1.067049865525271</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.312586777183877</v>
+        <v>1.380465374455237</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6399303328738797</v>
+        <v>0.6329028484538068</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.512735051794062</v>
+        <v>1.538767485136715</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.906100046340056</v>
+        <v>1.913824242756626</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.198649805631935</v>
+        <v>1.160932591321841</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.163058843059811</v>
+        <v>1.165042174960388</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.523213416967001</v>
+        <v>1.458148690373627</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.8159911832828561</v>
+        <v>0.8107759292423407</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>20.77234413794626</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.525037294928255</v>
+        <v>1.525037294928261</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>28.88033341328739</v>
@@ -2376,7 +2376,7 @@
         <v>20.33558919000323</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.879274276697063</v>
+        <v>1.879274276697068</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>27.39564585874236</v>
+        <v>27.09698777705167</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>16.97661839781503</v>
+        <v>17.22756004931487</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.1459822610922535</v>
+        <v>-0.330592096868233</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>25.46123765387043</v>
+        <v>25.58884936497171</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>18.25489800239256</v>
+        <v>18.10772514778451</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.7865994471940335</v>
+        <v>-0.6700984773325287</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>27.29884999552814</v>
+        <v>26.9565756137362</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>18.58913261802801</v>
+        <v>18.64604970738736</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.3101371603903813</v>
+        <v>0.2657151657754463</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>32.56768461913658</v>
+        <v>32.40710098347425</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>22.32528972765675</v>
+        <v>22.38146090136292</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.618646111626736</v>
+        <v>4.657883942591935</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>30.40869775769913</v>
+        <v>30.45253854830802</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>23.27471622458442</v>
+        <v>23.196727754402</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.748719808704355</v>
+        <v>3.649472846303818</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>30.71697151509132</v>
+        <v>30.53801500122588</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>22.31812855262064</v>
+        <v>22.28606553476792</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.386830930717118</v>
+        <v>3.644872731454568</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.7931790872767751</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.05823260396714331</v>
+        <v>0.05823260396714353</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>1.19448430012247</v>
@@ -2481,7 +2481,7 @@
         <v>0.8410755400082529</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.07772637479683221</v>
+        <v>0.07772637479683245</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>1.1766529423201</v>
+        <v>1.158851067405297</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.7370375426620394</v>
+        <v>0.7401413129180001</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.002979725853719657</v>
+        <v>-0.01477088006911936</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.9211681724666193</v>
+        <v>0.9268531672738001</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.6683784903553397</v>
+        <v>0.6545537593775576</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.02915453034604425</v>
+        <v>-0.02451206311691318</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>1.085555744817279</v>
+        <v>1.077254809098956</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.7426026063324913</v>
+        <v>0.7442166903763928</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.01231359961607122</v>
+        <v>0.01245337202027757</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.585027516708063</v>
+        <v>1.569365357781517</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.087897827750825</v>
+        <v>1.083514556816067</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2241215567676607</v>
+        <v>0.2261230534524713</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.216037689618571</v>
+        <v>1.208723252372273</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.9313495167056948</v>
+        <v>0.9238464385512056</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1483648979677754</v>
+        <v>0.1452272628862179</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.32224268963456</v>
+        <v>1.312736423605777</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.9592290908663669</v>
+        <v>0.961023071409643</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1438803502684118</v>
+        <v>0.155956247140593</v>
       </c>
     </row>
     <row r="58">
